--- a/server/excel/daysSr(每日收入)_Proto.xlsx
+++ b/server/excel/daysSr(每日收入)_Proto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>属性名</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>opTime</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总金额</t>
   </si>
   <si>
     <t>remark</t>
@@ -203,9 +218,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -245,7 +260,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,8 +311,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -268,7 +327,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -298,20 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -321,72 +396,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -409,187 +424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,17 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,16 +668,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -685,11 +700,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,25 +717,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,16 +761,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,124 +779,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1259,48 +1275,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1325,69 +1341,69 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="1" ht="13.5" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customFormat="1" ht="13.5" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>200</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" customFormat="1" ht="13.5" spans="1:13">
       <c r="A6" s="1" t="s">
@@ -1652,7 +1668,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1675,10 +1691,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
@@ -1689,48 +1705,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1755,25 +1771,25 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customFormat="1" ht="13.5" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1889,16 +1905,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="1" customHeight="1" spans="1:13">
+    <row r="10" s="3" customFormat="1" ht="11.25" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1906,83 +1922,150 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>50</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="11" s="3" customFormat="1" ht="11.25" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="11.25" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="10" customHeight="1" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="10" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1">
         <v>200</v>
       </c>
     </row>

--- a/server/excel/daysSr(每日收入)_Proto.xlsx
+++ b/server/excel/daysSr(每日收入)_Proto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>属性名</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>单价</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>总金额</t>
@@ -260,14 +263,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,127 +392,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -424,25 +427,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,157 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,17 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,16 +671,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -700,9 +703,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,27 +722,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,16 +764,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,115 +782,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,10 +1694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D12 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="12" customHeight="1"/>
@@ -1972,9 +1975,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:13">
+    <row r="13" s="3" customFormat="1" ht="11.25" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -1993,43 +1996,47 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="14" customFormat="1" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="10" customHeight="1" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
@@ -2041,9 +2048,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="11.25" spans="1:4">
-      <c r="A17" s="9" t="s">
-        <v>57</v>
+    <row r="17" s="1" customFormat="1" ht="10" customHeight="1" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>56</v>
@@ -2052,20 +2059,37 @@
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="11.25" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" s="1" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K19" s="1">
         <v>200</v>
       </c>
     </row>
